--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8204536632.472772</v>
+        <v>11617946513.29095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1516490577999902</v>
+        <v>0.1075447393883788</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1830803016940531</v>
+        <v>0.1092310455000436</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1284665647086933</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.745113125065528</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7524701967075371</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.304290809085215</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>7071290356.709807</v>
+        <v>3521507693.205603</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2055864455658442</v>
+        <v>0.4470395998388317</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3774557939296964</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.725718382279994</v>
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4904060675572361</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.941829655566662</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5565600676184453</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.189371696802244</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4842885299.631436</v>
+        <v>8649852735.740084</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3066754709456013</v>
+        <v>0.1514124043509444</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7417528035125553</v>
+        <v>0.2243313271455791</v>
       </c>
       <c r="I4" t="n">
-        <v>1.763031212167129</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.620982591589954</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7640516665900561</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.660050740211169</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>5573268745.628887</v>
+        <v>15559196505.17397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2603753965997298</v>
+        <v>0.06919183067339009</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.574900085679917</v>
+        <v>0.008600419302187664</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7226089797894</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.466126327113578</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4248685371778063</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-10.96349707066971</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>9590400669.390348</v>
+        <v>8416061748.974997</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1275499504316081</v>
+        <v>0.159975829569451</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09623375514820154</v>
+        <v>0.2468001012492771</v>
       </c>
       <c r="I6" t="n">
-        <v>1.452090963107671</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.697091226898012</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7709054159092564</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.721017091287116</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>5210059483.820917</v>
+        <v>5279212124.444016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2257375589764813</v>
+        <v>0.3036564249004918</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4500748574500195</v>
+        <v>0.6237902374626684</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09711871322106432</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.662330099562321</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4806371665949968</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.950413232337615</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>7429378414.043439</v>
+        <v>7797973037.84672</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.205901984627466</v>
+        <v>0.1545170000142394</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3785929098146658</v>
+        <v>0.2324771866424477</v>
       </c>
       <c r="I8" t="n">
-        <v>1.815891054507237</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.601316215437766</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7436348124045418</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.27138003265307</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7031169207.716328</v>
+        <v>12416020057.48954</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1654076478096503</v>
+        <v>0.1073830022685692</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2326624712497154</v>
+        <v>0.1088066785304656</v>
       </c>
       <c r="I9" t="n">
-        <v>1.380574705823995</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.90653143675191</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7684740027926729</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.462948619101548</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>4671320665.683602</v>
+        <v>5434715506.956033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.310088468265756</v>
+        <v>0.2515902770347279</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7540523059835296</v>
+        <v>0.4871787198753637</v>
       </c>
       <c r="I10" t="n">
-        <v>1.719499577298805</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.580270378181735</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7747588601706042</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.91490682523035</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>8306184852.248905</v>
+        <v>4907159897.42336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1296105623881605</v>
+        <v>0.3090640699921653</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1036596331885001</v>
+        <v>0.6379788539213257</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09578982706095006</v>
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9852302126884759</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3950281767200912</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.846451764729517</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8651143508567463</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.45583525240541</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5511001751.013619</v>
+        <v>7490291173.322172</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2300461544521957</v>
+        <v>0.1699564824040579</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4656018490438993</v>
+        <v>0.2729874069390117</v>
       </c>
       <c r="I12" t="n">
-        <v>1.504950805447779</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.652744214065692</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7570513824249739</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.488283434433788</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>5860493188.94073</v>
+        <v>10205868116.95942</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2114107857574255</v>
+        <v>0.1403904414186051</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3984451120739309</v>
+        <v>0.1954118248451605</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09625106893345091</v>
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9879805861552954</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2365081690665264</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.921908163372553</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8699928032074076</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.4779479007756</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>9963918483.798744</v>
+        <v>6253057476.740979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1390675076530452</v>
+        <v>0.2576219483016163</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1377398596704952</v>
+        <v>0.5030046605130651</v>
       </c>
       <c r="I14" t="n">
-        <v>1.644873917524535</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.640872175566838</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4849684156314488</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.058496137062138</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>6725186444.939681</v>
+        <v>10459163846.87993</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2185036507211927</v>
+        <v>0.09391489266066146</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4240058441708976</v>
+        <v>0.07346895972491781</v>
       </c>
       <c r="I15" t="n">
-        <v>1.744374797223561</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.110581043960008</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6717685010758331</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.324788977556653</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>4133291825.463893</v>
+        <v>12880348922.0138</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3783366614392131</v>
+        <v>0.103511909349079</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.09864967825042834</v>
       </c>
       <c r="I16" t="n">
-        <v>1.856313286884967</v>
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9888592696613878</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4363418418427748</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.121741836148801</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8418359048679562</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.71497626121032</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>9384345032.988161</v>
+        <v>14329527139.5266</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1236516523977922</v>
+        <v>0.1001725811342733</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08218536254725518</v>
+        <v>0.08988792586723197</v>
       </c>
       <c r="I17" t="n">
-        <v>0.106477678796574</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.902017129011643</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7869834297193765</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.837651465375888</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5737852189.647564</v>
+        <v>11723533091.61935</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2127339115152381</v>
+        <v>0.09361720578795255</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4032132929428475</v>
+        <v>0.07268788685677646</v>
       </c>
       <c r="I18" t="n">
-        <v>1.448981560617076</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.652778400360049</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7212536192679678</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.772293984999308</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7241562414.412924</v>
+        <v>12890235917.40446</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1815815019950501</v>
+        <v>0.1016036485594219</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2909485877795346</v>
+        <v>0.09364277043962753</v>
       </c>
       <c r="I19" t="n">
-        <v>1.560920050278481</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.993218045529915</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7640516665900561</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.287815286271208</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10548955871.04583</v>
+        <v>12341371368.13041</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1452601725452173</v>
+        <v>0.1199182251189478</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1600565186064398</v>
+        <v>0.1416966826325611</v>
       </c>
       <c r="I20" t="n">
-        <v>1.819000456997832</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.237872776167501</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7947429149808103</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.656985523448705</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>7462134781.354837</v>
+        <v>11593446960.91913</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1895530758214456</v>
+        <v>0.08517829367994194</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3196759446386542</v>
+        <v>0.05054581111048779</v>
       </c>
       <c r="I21" t="n">
-        <v>1.679077344921075</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.335202004963198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5099825203349582</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.864448401735966</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>5817667991.788088</v>
+        <v>5067960444.143732</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2467355858096699</v>
+        <v>0.3121791453262436</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5257459637222842</v>
+        <v>0.6461522100506167</v>
       </c>
       <c r="I22" t="n">
-        <v>1.703952564845832</v>
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9879184520998531</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3323051797174121</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.687556779770564</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8709378242194975</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.73119970461939</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5064136811.713452</v>
+        <v>10134158623.85798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2472422184771825</v>
+        <v>0.1390576043167873</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5275717283395458</v>
+        <v>0.1919147176720808</v>
       </c>
       <c r="I23" t="n">
-        <v>1.486294390504211</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.963885760778336</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7823343338529911</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.682800916281487</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6079793096.989515</v>
+        <v>4002867187.49705</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2261885771542024</v>
+        <v>0.3723413343953467</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4517002027611852</v>
+        <v>0.8040061763416171</v>
       </c>
       <c r="I24" t="n">
-        <v>1.632436307562157</v>
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3153889291167583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.766812517126184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5207978482217741</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.649144447309299</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7177361744.264093</v>
+        <v>10513933978.39183</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1843005824608368</v>
+        <v>0.1228236046235398</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3007474049981209</v>
+        <v>0.1493198373993142</v>
       </c>
       <c r="I25" t="n">
-        <v>0.117845471236289</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.824812036214135</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7605703166942025</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.386594297669914</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>5282411423.206083</v>
+        <v>5394240908.665535</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2072737112429352</v>
+        <v>0.2869837510432899</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3835362347908773</v>
+        <v>0.5800443608953678</v>
       </c>
       <c r="I26" t="n">
-        <v>1.299730241068536</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.520862210596911</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.369606605086481</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.871269891132709</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>5038977156.161713</v>
+        <v>9620988749.9886</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2905825854379026</v>
+        <v>0.1598153755248723</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6837584758000246</v>
+        <v>0.2463791008213325</v>
       </c>
       <c r="I27" t="n">
-        <v>1.738155992242372</v>
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9892688385215985</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3378692292791782</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.339448207294453</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7824588311244973</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.30972841519549</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>6817165597.841598</v>
+        <v>7956267637.909535</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1690631661294698</v>
+        <v>0.1902911627540218</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2458359526180725</v>
+        <v>0.3263416813789681</v>
       </c>
       <c r="I28" t="n">
-        <v>1.368137095861617</v>
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9880826718359059</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3556127599203354</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.710864359973487</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8517978580694993</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.3250928014165</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10629739649.95626</v>
+        <v>10341076761.05324</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1283852883457607</v>
+        <v>0.1565391165160567</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09924408295553556</v>
+        <v>0.2377828298554583</v>
       </c>
       <c r="I29" t="n">
-        <v>1.619998697599778</v>
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9863311450905645</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3184687069042883</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.673720306957439</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8801893107468068</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.9300659079787</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>10203321617.42629</v>
+        <v>5774278593.580454</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.150950972413678</v>
+        <v>0.2163818405625723</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1805645942004684</v>
+        <v>0.3947985816185804</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1072795536201955</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.58089725974237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7524701967075371</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.468506674408372</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>5736278029.042746</v>
+        <v>8201959923.755437</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.256629328729671</v>
+        <v>0.1197605522498392</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5614002886680236</v>
+        <v>0.1412829794719814</v>
       </c>
       <c r="I31" t="n">
-        <v>1.747484199714156</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.511990903383458</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6179434451862875</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.846878000342292</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8986805060.291643</v>
+        <v>8814948874.56319</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.130578855569603</v>
+        <v>0.1179698084240483</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1071490951659388</v>
+        <v>0.1365844134808483</v>
       </c>
       <c r="I32" t="n">
-        <v>1.393012315786374</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.149328069507327</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4877081483388527</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.604834897269727</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>3957667021.990687</v>
+        <v>11135713966.19409</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2773160055915848</v>
+        <v>0.1220813873387079</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6359493753833378</v>
+        <v>0.1473724025723352</v>
       </c>
       <c r="I33" t="n">
-        <v>1.302839643559131</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.690073343098597</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7733190661230779</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.776307979362961</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>3985176742.500531</v>
+        <v>15318351074.44943</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3529611158769861</v>
+        <v>0.07250267046382589</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9085535217089548</v>
+        <v>0.01728742356119254</v>
       </c>
       <c r="I34" t="n">
-        <v>1.669749137449292</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.789637385713722</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5974272136195813</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.158906886677904</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>8877506824.681591</v>
+        <v>11021100519.74887</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1398580575064252</v>
+        <v>0.1452166493838011</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1405887836405366</v>
+        <v>0.2080748625643559</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1117466080011938</v>
+        <v>14</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9896796401192604</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4121283470575746</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.681705577893247</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8633262941410857</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.58482030492847</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>6604598491.055165</v>
+        <v>15504032351.05172</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.233994557291112</v>
+        <v>0.07822336425386335</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4798308055645716</v>
+        <v>0.03229741935201178</v>
       </c>
       <c r="I36" t="n">
-        <v>1.834547469450804</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.636723380689535</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7452118194918048</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.267513009146562</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>7785804996.911512</v>
+        <v>11812816670.65954</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.154422055327218</v>
+        <v>0.08381823299258218</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1930734211543981</v>
+        <v>0.04697727450604998</v>
       </c>
       <c r="I37" t="n">
-        <v>1.427215743182914</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.728798093860356</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5533578138575408</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.33835818329046</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>8210046680.610527</v>
+        <v>11884147644.05985</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1304901849742384</v>
+        <v>0.1060174130897607</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1068295507583446</v>
+        <v>0.1052236362320647</v>
       </c>
       <c r="I38" t="n">
-        <v>1.271745618653185</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.677243659880769</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7545142943620857</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.413042227360945</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>7956000974.819146</v>
+        <v>8366921704.493779</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1465093523353291</v>
+        <v>0.1793862214814175</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1645582185709957</v>
+        <v>0.2977292213158242</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1080881346441538</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.371585991298854</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7983340546301451</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.595095101304047</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10434672795.99125</v>
+        <v>7126074419.677028</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1335466389071017</v>
+        <v>0.1951840533912133</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1178441690464028</v>
+        <v>0.3391796815524928</v>
       </c>
       <c r="I40" t="n">
-        <v>1.654202124996319</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.892938287619431</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7790412024278079</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.687885760936728</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>5112084858.871225</v>
+        <v>4849531438.89336</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2505595555162254</v>
+        <v>0.241979402502396</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5395264975003113</v>
+        <v>0.4619616410434884</v>
       </c>
       <c r="I41" t="n">
-        <v>1.520497817900752</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.742568528433859</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7372473982668833</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.002379436903809</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>8609510795.890892</v>
+        <v>12074018503.44124</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1414733518403077</v>
+        <v>0.09371995576099927</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1464098596002558</v>
+        <v>0.07295748294416433</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1220782582596976</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.693950604910984</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7285246593310453</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.87654258170992</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>7677858060.182251</v>
+        <v>7874991671.047879</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.16614567760969</v>
+        <v>0.125730852978572</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2353221274104855</v>
+        <v>0.1569478956687314</v>
       </c>
       <c r="I43" t="n">
-        <v>1.514279012919562</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.030463035709578</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6483489204091686</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.936515372473795</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>10217687265.423</v>
+        <v>8444955658.323245</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1474060823036599</v>
+        <v>0.1826913926397488</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1677897864354501</v>
+        <v>0.3064013521788476</v>
       </c>
       <c r="I44" t="n">
-        <v>1.787906432091886</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9896033593445346</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.148514269797333</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7079519263275947</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.01052425675456</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>10768254393.51358</v>
+        <v>13670075254.39946</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1454641729994364</v>
+        <v>0.07204719957068495</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1607916800658204</v>
+        <v>0.01609235589286321</v>
       </c>
       <c r="I45" t="n">
-        <v>1.859422689375561</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.480086408859217</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6187539353789457</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.894992298719698</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10649407129.29719</v>
+        <v>7638537977.915987</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.100845980152782</v>
+        <v>0.2036931235399184</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.3615058384494544</v>
       </c>
       <c r="I46" t="n">
-        <v>1.274855021143779</v>
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9889729936102448</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3117595675189403</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.667011167572091</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8641313459692633</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.61561575181317</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>8461162709.052522</v>
+        <v>5549003854.822064</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1470495595917132</v>
+        <v>0.1977876459837481</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1665049767607833</v>
+        <v>0.3460110057396069</v>
       </c>
       <c r="I47" t="n">
-        <v>1.476966183032427</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.740284832181901</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7212536192679678</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.684787553177456</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>8852334077.636833</v>
+        <v>7403882877.990728</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1731004655451351</v>
+        <v>0.2062572295058274</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2603852679210177</v>
+        <v>0.3682335573535031</v>
       </c>
       <c r="I48" t="n">
-        <v>1.819000456997832</v>
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2205960603907012</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.672019648400127</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5371298574015535</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.070577499630943</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>5981556369.510006</v>
+        <v>13856259689.96407</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1926808891871084</v>
+        <v>0.08147632299484767</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3309477226715684</v>
+        <v>0.04083255491457499</v>
       </c>
       <c r="I49" t="n">
-        <v>1.368137095861617</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.831191819373377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7279713421384374</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.728235023395371</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>8002436315.738059</v>
+        <v>12088171857.02702</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1731544313917107</v>
+        <v>0.1128956641368959</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2605797459709667</v>
+        <v>0.1232708387314353</v>
       </c>
       <c r="I50" t="n">
-        <v>1.644873917524535</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.957942514959359</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5495250011990478</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.032557509021597</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6618067001.293035</v>
+        <v>10348169752.96204</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1887936507375769</v>
+        <v>0.1301067234246538</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3169391857667956</v>
+        <v>0.1684293347017455</v>
       </c>
       <c r="I51" t="n">
-        <v>1.483184988013617</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.598992641540535</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7709054159092564</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.819115676644593</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>6717398051.693849</v>
+        <v>10282521503.17665</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2086185215191516</v>
+        <v>0.1090295721388622</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3883825606926408</v>
+        <v>0.1131269599035796</v>
       </c>
       <c r="I52" t="n">
-        <v>1.663530332468102</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.537860222347352</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7051898449834695</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.565936677322038</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4034588873.769723</v>
+        <v>12687323447.94257</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2954012136771743</v>
+        <v>0.1090094317903024</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7011234850209931</v>
+        <v>0.11307411551823</v>
       </c>
       <c r="I53" t="n">
-        <v>1.414778133220536</v>
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9866139158508926</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2967046993691304</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.982104693675157</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8554666928401371</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.12722916312758</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>9491773711.332014</v>
+        <v>9201947428.059826</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1526082178160907</v>
+        <v>0.173070877925651</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1865368502586894</v>
+        <v>0.281158979371619</v>
       </c>
       <c r="I54" t="n">
-        <v>1.719499577298805</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3150042204766343</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.670255820529785</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5236170519087302</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.802085217644819</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9497494065.905247</v>
+        <v>8352009826.507677</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.156377473857199</v>
+        <v>0.1583800758712846</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2001202110534886</v>
+        <v>0.2426131516987916</v>
       </c>
       <c r="I55" t="n">
-        <v>1.763031212167129</v>
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9839540022175446</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3193712252222439</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.150031362092324</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8511024541412866</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.87201772073341</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8082906517.521878</v>
+        <v>4424226931.448724</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.189902300202601</v>
+        <v>0.2830027571822604</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3209344531389628</v>
+        <v>0.5695990017675304</v>
       </c>
       <c r="I56" t="n">
-        <v>1.822109859488426</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.762592744742969</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7529824357073801</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.297055969404633</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10223308695.36974</v>
+        <v>13344163220.6567</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1068426732037065</v>
+        <v>0.07380684901061416</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02161043038679394</v>
+        <v>0.0207093362200836</v>
       </c>
       <c r="I57" t="n">
-        <v>1.296620838577941</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.248483643541366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6724357331213346</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.200231018885326</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>11169465104.13244</v>
+        <v>10803707189.88131</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1020133586861233</v>
+        <v>0.1498358842524114</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.004206910761577132</v>
+        <v>0.2201948428463613</v>
       </c>
       <c r="I58" t="n">
-        <v>1.352590083408644</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.915739681217444</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5735608555575034</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8.555477429932624</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11065460861.3772</v>
+        <v>10456434644.16104</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.123093183109454</v>
+        <v>0.1510545634101009</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.08017279302330159</v>
+        <v>0.2233924216189107</v>
       </c>
       <c r="I59" t="n">
-        <v>1.616889295109184</v>
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9869489242492107</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4040470229160337</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.85547061092546</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8829563496990805</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.80365638305615</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>9921395457.246445</v>
+        <v>12882714245.36268</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1547123634588001</v>
+        <v>0.07889046521122987</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1941196117155954</v>
+        <v>0.03404776344131803</v>
       </c>
       <c r="I60" t="n">
-        <v>1.822109859488426</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.533374162405076</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7031881007133551</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.530387851862026</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>7906117289.71416</v>
+        <v>10017561163.08706</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1338499697413748</v>
+        <v>0.1001467676281041</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1189372898419078</v>
+        <v>0.08982019621184968</v>
       </c>
       <c r="I61" t="n">
-        <v>1.256198606200212</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.571721742812343</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7001708989228328</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.431696235644313</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>7463432423.669555</v>
+        <v>9896218196.778631</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2018038302622522</v>
+        <v>0.1540472279093688</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.3638242900317778</v>
+        <v>0.2312445953562242</v>
       </c>
       <c r="I62" t="n">
-        <v>1.787906432091886</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.204709185487093</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8023295457348248</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.841881729209405</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4907432272.831725</v>
+        <v>5785402886.756466</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2994392399738754</v>
+        <v>0.2698440317049809</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.715675419803023</v>
+        <v>0.5350730471760652</v>
       </c>
       <c r="I63" t="n">
-        <v>1.744374797223561</v>
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9900323354942899</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.52131875608812</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.876570356141271</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8660634488051706</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.44469861996214</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4452706506.324012</v>
+        <v>15431850450.00907</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.307076511343841</v>
+        <v>0.08079586074522041</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7431980426693463</v>
+        <v>0.03904715337455486</v>
       </c>
       <c r="I64" t="n">
-        <v>1.623108100090373</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.876741356146834</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7519571427719088</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.162401499291343</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>8092120967.467625</v>
+        <v>12786191342.85992</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1492240161577678</v>
+        <v>0.07846170474839816</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1743411194232105</v>
+        <v>0.03292277878411063</v>
       </c>
       <c r="I65" t="n">
-        <v>1.433434548164103</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.954371013417509</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.651953824471898</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.084705476020451</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11117955724.34849</v>
+        <v>4396237493.396191</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1107319844154302</v>
+        <v>0.2770588149138083</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03562643695571033</v>
+        <v>0.5540032450805161</v>
       </c>
       <c r="I66" t="n">
-        <v>1.461419170579454</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.052504346762596</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7462588470264592</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.872672593766588</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>6323722141.836525</v>
+        <v>8400745438.901534</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1901253696847012</v>
+        <v>0.1200447219040915</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3217383341236001</v>
+        <v>0.1420285857691817</v>
       </c>
       <c r="I67" t="n">
-        <v>1.427215743182914</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.395916461404819</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5199192029150402</v>
+      </c>
+      <c r="N67" t="n">
+        <v>7.002467596895985</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6239358441.959092</v>
+        <v>11293632413.61943</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1872384718505101</v>
+        <v>0.1189827170556325</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3113347493228146</v>
+        <v>0.139242090128922</v>
       </c>
       <c r="I68" t="n">
-        <v>1.386793510805184</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.995474795177455</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5408263933993903</v>
+      </c>
+      <c r="N68" t="n">
+        <v>7.821053072810352</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4506899167.807421</v>
+        <v>5555591149.930416</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3161704105071489</v>
+        <v>0.2215989742181477</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7759699509768581</v>
+        <v>0.408487332858282</v>
       </c>
       <c r="I69" t="n">
-        <v>1.691514954883454</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.573122052745417</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7488615274091853</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.40410849543829</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6277955316.979542</v>
+        <v>7627051918.377149</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2115387356147899</v>
+        <v>0.1384039575575105</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3989062081250532</v>
+        <v>0.1901996748004428</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1279867131817328</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.557875628952864</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7120630676065207</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.683385723177551</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5458308555.419925</v>
+        <v>7203793171.737066</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2001143062744951</v>
+        <v>0.2083500225809623</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3577357108408498</v>
+        <v>0.3737246422466563</v>
       </c>
       <c r="I71" t="n">
-        <v>1.296620838577941</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.37008739498094</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7983340546301451</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.596593697621961</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>8217432337.423621</v>
+        <v>3610213978.499252</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1488609920679338</v>
+        <v>0.3859924891707603</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1730328805729867</v>
+        <v>0.839824170319134</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1106108843210537</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.810731021073263</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7795136398904217</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.77954177673517</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>4614994095.914135</v>
+        <v>11692514612.41881</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2888995050243736</v>
+        <v>0.1279170255140347</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.6776931174761835</v>
+        <v>0.1626839902334231</v>
       </c>
       <c r="I73" t="n">
-        <v>1.582685867712643</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.846185583419259</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.4741978624500371</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6.637771665581483</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8072397917.524373</v>
+        <v>3999019299.264633</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1469927129612931</v>
+        <v>0.2541431395909713</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1663001171591687</v>
+        <v>0.4938769382436471</v>
       </c>
       <c r="I74" t="n">
-        <v>1.408559328239346</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.072083213725471</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.655512809202376</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.038172970322048</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4977203694.759617</v>
+        <v>4418456227.41982</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2989255837703578</v>
+        <v>0.2347603748030619</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7138243442961397</v>
+        <v>0.443020306415595</v>
       </c>
       <c r="I75" t="n">
-        <v>1.766140614657724</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.664674090521922</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7079537100228235</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.494400109934547</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>7988368837.136768</v>
+        <v>8869802315.723816</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1455878144475928</v>
+        <v>0.1780752393094464</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1612372497966062</v>
+        <v>0.2942894572582908</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1186458541378379</v>
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2613536611553087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.712777249164735</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5586234686002196</v>
+      </c>
+      <c r="N76" t="n">
+        <v>8.459692122839659</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>9200752045.327291</v>
+        <v>4118861121.59258</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1480403768398204</v>
+        <v>0.291901080057568</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1700756092718061</v>
+        <v>0.5929464826511109</v>
       </c>
       <c r="I77" t="n">
-        <v>0.133349016400767</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.629419591111052</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7431074053246093</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.232728515381133</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11836123483.28525</v>
+        <v>7250573575.296135</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.105783656428403</v>
+        <v>0.1654600987827368</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.01779402556053481</v>
+        <v>0.2611897646062807</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08113399556645662</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.555267663507136</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7425791233874636</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.296314804242135</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4260307157.953403</v>
+        <v>4252495112.739249</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2613052788744901</v>
+        <v>0.3283095766101136</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5782511253272644</v>
+        <v>0.6884753468171105</v>
       </c>
       <c r="I79" t="n">
-        <v>1.321496058502698</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.857153736546596</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7799854101958187</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.742554467369777</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>4217145427.49394</v>
+        <v>10880460004.39382</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2869614531456039</v>
+        <v>0.1352973292862184</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.6707089122056319</v>
+        <v>0.1820484821327036</v>
       </c>
       <c r="I80" t="n">
-        <v>1.436543950654698</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.013936297227186</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7933864249120205</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.853792201013224</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5113301705.884226</v>
+        <v>11561453027.19794</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.217202391699659</v>
+        <v>0.08767963054603041</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4193164649978702</v>
+        <v>0.05710883601785013</v>
       </c>
       <c r="I81" t="n">
-        <v>1.318386656012104</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.416246559552078</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5223353265977023</v>
+      </c>
+      <c r="N81" t="n">
+        <v>7.030459972401967</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>10981061054.76011</v>
+        <v>5815868028.717801</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1044792314949079</v>
+        <v>0.2233918365383598</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01309323731262741</v>
+        <v>0.4131914573696772</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1109786867143641</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.854564283927925</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4716373561531033</v>
+      </c>
+      <c r="N82" t="n">
+        <v>6.578182839134142</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7405388875.552358</v>
+        <v>9077675280.70788</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.154573034480194</v>
+        <v>0.1638980767644268</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1936175084450996</v>
+        <v>0.2570913204698664</v>
       </c>
       <c r="I83" t="n">
-        <v>1.358808888389833</v>
+        <v>15</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9903539290155878</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4017525761470604</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.594372489921266</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8152687509405444</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.71100252888962</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>3891775836.041978</v>
+        <v>5753556806.234321</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3540283916766522</v>
+        <v>0.2754350054009808</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9123996897846476</v>
+        <v>0.5497426824901746</v>
       </c>
       <c r="I84" t="n">
-        <v>1.635545710052751</v>
+        <v>21</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9903106674459046</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3753458299809023</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.228447879109646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.746350387460579</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.69855987010193</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>9786119176.716208</v>
+        <v>8084226180.549956</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.129281622996189</v>
+        <v>0.1555259800900904</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.102474226203132</v>
+        <v>0.2351245555189148</v>
       </c>
       <c r="I85" t="n">
-        <v>1.501841402957184</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.582176402122091</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7540044814267317</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.497913226412543</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>6541906124.786933</v>
+        <v>11062353816.09159</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2058064475885231</v>
+        <v>0.1394658619357999</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.3782486206352957</v>
+        <v>0.192985906826379</v>
       </c>
       <c r="I86" t="n">
-        <v>1.598232880165616</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.766311723838158</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.49966533586605</v>
+      </c>
+      <c r="N86" t="n">
+        <v>7.226994993482841</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10032264787.76249</v>
+        <v>7259921224.24457</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1083550796352581</v>
+        <v>0.2143160527422804</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.02706072667977268</v>
+        <v>0.3893783532991925</v>
       </c>
       <c r="I87" t="n">
-        <v>1.290402033596752</v>
+        <v>13</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9887354651776012</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2806221887524238</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.635873788805575</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8640265848977108</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.64465790914864</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10044955242.89009</v>
+        <v>4925767286.716821</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1170842558838138</v>
+        <v>0.2350436617503484</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05851827403987789</v>
+        <v>0.443763596660175</v>
       </c>
       <c r="I88" t="n">
-        <v>1.396121718276968</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.739998039117401</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7340046778520364</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.940095517923327</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>10621183392.67491</v>
+        <v>6069527007.28454</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125529280562043</v>
+        <v>0.2494440535782961</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.08895181739015738</v>
+        <v>0.4815474439795447</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1468653890140668</v>
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9870208700219374</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2875141011338868</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.972914095439914</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8913508743535359</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.85410339163081</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6471878033.949619</v>
+        <v>5677284217.928695</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1845587685265853</v>
+        <v>0.1988551297880749</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3016778364798254</v>
+        <v>0.348811877102031</v>
       </c>
       <c r="I90" t="n">
-        <v>1.41788753571113</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.007641255979047</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7279713421384374</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.5517855867897</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7756542284.241527</v>
+        <v>6280498922.014961</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1624340516469191</v>
+        <v>0.1893485015707112</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2219464495478488</v>
+        <v>0.3238683204697894</v>
       </c>
       <c r="I91" t="n">
-        <v>1.495622597975995</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.529768137466608</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7404571760703678</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.279375383940748</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>10946688166.16122</v>
+        <v>15061276074.33582</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1313680528915891</v>
+        <v>0.0659139906273698</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.1099931449852963</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1.707061967336426</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.59570075657389</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5544057123387631</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.492413490201372</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>5811084947.901141</v>
+        <v>8874370065.113646</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2168143472855379</v>
+        <v>0.1168847402564022</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.4179180597890103</v>
+        <v>0.1337374041447634</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1042884195384845</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.913350302717406</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7079537100228235</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.245723897739063</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6465309194.731246</v>
+        <v>13135935043.45069</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.183935991950565</v>
+        <v>0.1020960956006447</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2994335211999997</v>
+        <v>0.09493485638011737</v>
       </c>
       <c r="I94" t="n">
-        <v>1.411668730729941</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.973153822652922</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7699349999742874</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.425546176832826</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7525321769.800253</v>
+        <v>6843692509.945873</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.202928780551072</v>
+        <v>0.1929035470371303</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3678783010839854</v>
+        <v>0.3331960732643978</v>
       </c>
       <c r="I95" t="n">
-        <v>1.812781652016642</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.959736344496047</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7660245059249829</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.360753774003612</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8269337872.773749</v>
+        <v>5234439192.87404</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1884718068095126</v>
+        <v>0.2892396614447466</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.315779348879401</v>
+        <v>0.5859634341534575</v>
       </c>
       <c r="I96" t="n">
-        <v>1.850094481903777</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.556794561988725</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.4235290083101333</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5.913785604213943</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6003985100.725687</v>
+        <v>12066291578.96101</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2613288646919456</v>
+        <v>0.1259082950265335</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5783361221183139</v>
+        <v>0.1574134693370258</v>
       </c>
       <c r="I97" t="n">
-        <v>1.862532091866156</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.448950242666539</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.3748022847946021</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-9.944995938558582</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4924412762.481658</v>
+        <v>7448754942.714051</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2170230586969365</v>
+        <v>0.1487499560022154</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4186701982407628</v>
+        <v>0.2173455768197548</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06205663637118639</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.619025980250708</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7235090533363706</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.851155086476705</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>4317422510.192604</v>
+        <v>14836734728.94012</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3233723052826065</v>
+        <v>0.07362035177925089</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.801923596490538</v>
+        <v>0.02022000349917532</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1025218826548748</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.686132123214415</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7201197039399245</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.716261955584075</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>9843041403.187174</v>
+        <v>6716646723.954004</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1184215835587738</v>
+        <v>0.1957723599352737</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.06333763470727112</v>
+        <v>0.3407232843171498</v>
       </c>
       <c r="I100" t="n">
-        <v>1.38368410831459</v>
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9878931206890387</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2103686520060749</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.895768646312102</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8359431424161241</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.82309420201038</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>4593099041.621557</v>
+        <v>6880695300.558458</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3701170156783369</v>
+        <v>0.2299348381073626</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9703786602030368</v>
+        <v>0.4303590299779312</v>
       </c>
       <c r="I101" t="n">
-        <v>2.018002216395885</v>
+        <v>14</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9890118643148004</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3806699460842325</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.650247176919905</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8578311683462467</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.50637619000503</v>
       </c>
     </row>
   </sheetData>
